--- a/data/cwc2023.odds.xlsx
+++ b/data/cwc2023.odds.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b0f9a5cd621b2eb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\cwc2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{2DF6F96E-2152-4F97-9A88-B5CF121C8BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04F66884-4FBA-400A-900D-E78FA3E1C26D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FACB643-D3C0-4E5D-BE6F-A898AC2A1EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="-14490" windowWidth="26595" windowHeight="12660" activeTab="1" xr2:uid="{F3F4EFBD-B2C4-4E38-A904-43F7349B9BFB}"/>
+    <workbookView xWindow="15855" yWindow="-14490" windowWidth="12180" windowHeight="12660" activeTab="2" xr2:uid="{F3F4EFBD-B2C4-4E38-A904-43F7349B9BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="odds" sheetId="2" r:id="rId2"/>
+    <sheet name="winner_odds" sheetId="2" r:id="rId2"/>
+    <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>India</t>
   </si>
@@ -79,6 +80,15 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Decimal Odds</t>
   </si>
 </sst>
 </file>
@@ -1259,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A7CFB3-C335-48DE-B268-16C4EF6E1377}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,4 +1522,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDADCD2-A21E-4134-B438-C677749E69E9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1.67</v>
+      </c>
+      <c r="C2">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f>1/B2</f>
+        <v>0.5988023952095809</v>
+      </c>
+      <c r="C3">
+        <f>1/C2</f>
+        <v>0.43103448275862072</v>
+      </c>
+      <c r="D3">
+        <f>SUM(B3:C3)</f>
+        <v>1.0298368779682017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f>B3/D3</f>
+        <v>0.581453634085213</v>
+      </c>
+      <c r="C4">
+        <f>C3/D3</f>
+        <v>0.41854636591478694</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/cwc2023.odds.xlsx
+++ b/data/cwc2023.odds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\cwc2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FACB643-D3C0-4E5D-BE6F-A898AC2A1EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF06F80-FEDA-4BFD-9449-4A6AC24836E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="-14490" windowWidth="12180" windowHeight="12660" activeTab="2" xr2:uid="{F3F4EFBD-B2C4-4E38-A904-43F7349B9BFB}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{F3F4EFBD-B2C4-4E38-A904-43F7349B9BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>India</t>
   </si>
@@ -89,13 +89,43 @@
   </si>
   <si>
     <t>Decimal Odds</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>NLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +136,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,10 +169,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D75A08F-5E9A-44CB-997B-B1D653FDEF2D}">
   <dimension ref="A2:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -479,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -488,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K2">
         <v>2.88</v>
@@ -497,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -506,16 +544,16 @@
         <v>3</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T2">
         <v>3</v>
@@ -524,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="W2">
         <v>3</v>
@@ -536,7 +574,7 @@
         <v>3.02</v>
       </c>
       <c r="Z2">
-        <v>3.02</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -550,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="E3">
         <v>3.75</v>
@@ -559,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -595,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="S3">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -604,7 +642,7 @@
         <v>3.75</v>
       </c>
       <c r="V3">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W3">
         <v>4</v>
@@ -624,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>5.5</v>
@@ -648,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -657,7 +695,7 @@
         <v>5.5</v>
       </c>
       <c r="M4">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N4">
         <v>5.5</v>
@@ -669,13 +707,13 @@
         <v>5.5</v>
       </c>
       <c r="Q4">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="R4">
         <v>5.5</v>
       </c>
       <c r="S4">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -684,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="V4">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>5.5</v>
@@ -693,10 +731,10 @@
         <v>5.5</v>
       </c>
       <c r="Y4">
-        <v>5.42</v>
+        <v>5.52</v>
       </c>
       <c r="Z4">
-        <v>5.42</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -704,13 +742,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -719,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="G5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>7.5</v>
@@ -728,7 +766,7 @@
         <v>6.5</v>
       </c>
       <c r="J5">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>7.5</v>
@@ -737,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="M5">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>7.5</v>
@@ -749,13 +787,13 @@
         <v>7.5</v>
       </c>
       <c r="Q5">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="R5">
         <v>7.5</v>
       </c>
       <c r="S5">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="T5">
         <v>7.5</v>
@@ -764,7 +802,7 @@
         <v>6.5</v>
       </c>
       <c r="V5">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="W5">
         <v>7.5</v>
@@ -773,10 +811,10 @@
         <v>7.5</v>
       </c>
       <c r="Y5">
-        <v>8.8800000000000008</v>
+        <v>9.26</v>
       </c>
       <c r="Z5">
-        <v>8.8800000000000008</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -808,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <v>9.5</v>
@@ -817,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="M6">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>10</v>
@@ -829,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="Q6">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="R6">
         <v>10</v>
@@ -853,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="Y6">
-        <v>10.6</v>
+        <v>10.1</v>
       </c>
       <c r="Z6">
         <v>10.6</v>
@@ -873,7 +911,7 @@
         <v>9.5</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -906,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -915,7 +953,7 @@
         <v>10</v>
       </c>
       <c r="S7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>11</v>
@@ -924,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="V7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W7">
         <v>11</v>
@@ -944,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>26</v>
@@ -953,7 +991,7 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>26</v>
@@ -968,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="J8">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>34</v>
@@ -977,7 +1015,7 @@
         <v>34</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>41</v>
@@ -986,16 +1024,16 @@
         <v>23</v>
       </c>
       <c r="P8">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R8">
         <v>26</v>
       </c>
       <c r="S8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T8">
         <v>34</v>
@@ -1004,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="V8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W8">
         <v>26</v>
@@ -1013,10 +1051,10 @@
         <v>26</v>
       </c>
       <c r="Y8">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Z8">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -1048,7 +1086,7 @@
         <v>51</v>
       </c>
       <c r="J9">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K9">
         <v>81</v>
@@ -1057,7 +1095,7 @@
         <v>101</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>67</v>
@@ -1066,10 +1104,10 @@
         <v>51</v>
       </c>
       <c r="P9">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="R9">
         <v>51</v>
@@ -1128,7 +1166,7 @@
         <v>67</v>
       </c>
       <c r="J10">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="K10">
         <v>101</v>
@@ -1137,7 +1175,7 @@
         <v>126</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>101</v>
@@ -1149,7 +1187,7 @@
         <v>101</v>
       </c>
       <c r="Q10">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="R10">
         <v>67</v>
@@ -1173,10 +1211,10 @@
         <v>126</v>
       </c>
       <c r="Y10">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="Z10">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1267,18 +1305,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A7CFB3-C335-48DE-B268-16C4EF6E1377}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1292,117 +1331,177 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>raw!A2</f>
         <v>India</v>
       </c>
       <c r="B2">
         <f>AVERAGE(raw!B2:Z2)</f>
-        <v>2.9807999999999999</v>
+        <v>2.9483999999999999</v>
       </c>
       <c r="C2">
         <f>1/(1+B2)</f>
-        <v>0.2512057877813505</v>
+        <v>0.25326714618579677</v>
       </c>
       <c r="D2" s="2">
         <f>C2/C$12</f>
-        <v>0.26343323636997201</v>
-      </c>
+        <v>0.26543502104343708</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="str">
-        <f>""""&amp;A2&amp;""": " &amp;D2&amp;","</f>
-        <v>"India": 0.263433236369972,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <f>A2</f>
+        <v>India</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f>IF(LEFT(F2,3)=G2,"","MISMATCH!")</f>
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <f>""""&amp;G2&amp;""": " &amp;ROUND(D2,6)&amp;","</f>
+        <v>"IND": 0.265435,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>raw!A3</f>
         <v>England</v>
       </c>
       <c r="B3">
         <f>AVERAGE(raw!B3:Z3)</f>
-        <v>4.1368</v>
+        <v>4.1208</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C11" si="0">1/(1+B3)</f>
-        <v>0.1946737268338265</v>
+        <v>0.19528198718950163</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D11" si="1">C3/C$12</f>
-        <v>0.20414947581015114</v>
-      </c>
+        <v>0.20466404411183936</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F11" si="2">""""&amp;A3&amp;""": " &amp;D3&amp;","</f>
-        <v>"England": 0.204149475810151,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:F11" si="2">A3</f>
+        <v>England</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H11" si="3">IF(LEFT(F3,3)=G3,"","MISMATCH!")</f>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J11" si="4">""""&amp;G3&amp;""": " &amp;ROUND(D3,6)&amp;","</f>
+        <v>"ENG": 0.204664,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>raw!A4</f>
         <v>Australia</v>
       </c>
       <c r="B4">
         <f>AVERAGE(raw!B4:Z4)</f>
-        <v>5.2936000000000005</v>
+        <v>5.2115999999999998</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.15889157239100038</v>
+        <v>0.16098911713568162</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>0.16662562402147968</v>
-      </c>
+        <v>0.16872361985445086</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
-        <v>"Australia": 0.16662562402148,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Australia</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v>"AUS": 0.168724,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>raw!A5</f>
         <v>Pakistan</v>
       </c>
       <c r="B5">
         <f>AVERAGE(raw!B5:Z5)</f>
-        <v>7.6303999999999998</v>
+        <v>7.7407999999999992</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.11586948461253245</v>
+        <v>0.11440600402709133</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>0.12150943494410277</v>
-      </c>
+        <v>0.11990248456524655</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
-        <v>"Pakistan": 0.121509434944103,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Pakistan</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>"PAK": 0.119902,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>raw!A6</f>
         <v>South Africa</v>
       </c>
       <c r="B6">
         <f>AVERAGE(raw!B6:Z6)</f>
-        <v>9.6479999999999997</v>
+        <v>9.6879999999999988</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>9.391435011269722E-2</v>
+        <v>9.3562874251497022E-2</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>9.8485633672199896E-2</v>
-      </c>
+        <v>9.805797502693743E-2</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v>"South Africa": 0.0984856336721999,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>South Africa</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>MISMATCH!</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>"ZAF": 0.098058,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>raw!A7</f>
         <v>New Zealand</v>
@@ -1417,80 +1516,128 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>8.9416356355864965E-2</v>
-      </c>
+        <v>8.9362520215544583E-2</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
-        <v>"New Zealand": 0.089416356355865,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>New Zealand</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>MISMATCH!</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>"NZL": 0.089363,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>raw!A8</f>
         <v>Sri Lanka</v>
       </c>
       <c r="B8">
         <f>AVERAGE(raw!B8:Z8)</f>
-        <v>32.119999999999997</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.0193236714975848E-2</v>
+        <v>2.8735632183908049E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>3.1662893337608231E-2</v>
-      </c>
+        <v>3.011619646804331E-2</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
-        <v>"Sri Lanka": 0.0316628933376082,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Sri Lanka</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>MISMATCH!</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>"LKA": 0.030116,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>raw!A9</f>
         <v>Bangladesh</v>
       </c>
       <c r="B9">
         <f>AVERAGE(raw!B9:Z9)</f>
-        <v>78.959999999999994</v>
+        <v>83.72</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.2506253126563283E-2</v>
+        <v>1.1803588290840416E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>1.3114995339439526E-2</v>
-      </c>
+        <v>1.2370675603020622E-2</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
-        <v>"Bangladesh": 0.0131149953394395,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Bangladesh</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>MISMATCH!</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>"BGD": 0.012371,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>raw!A10</f>
         <v>Afghanistan</v>
       </c>
       <c r="B10">
         <f>AVERAGE(raw!B10:Z10)</f>
-        <v>104.56</v>
+        <v>107.04</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>9.4732853353543013E-3</v>
+        <v>9.2558311736393919E-3</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>9.9343977580673027E-3</v>
-      </c>
+        <v>9.7005149674926593E-3</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
-        <v>"Afghanistan": 0.0099343977580673,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Afghanistan</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>"AFG": 0.009701,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>raw!A11</f>
         <v>Netherlands</v>
@@ -1505,17 +1652,29 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>1.6679523911146208E-3</v>
-      </c>
+        <v>1.6669481439876368E-3</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
-        <v>"Netherlands": 0.00166795239111462,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Netherlands</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>MISMATCH!</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>"NLD": 0.001667,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>SUM(C2:C11)</f>
-        <v>0.95358426006865371</v>
+        <v>0.95415874359830943</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDADCD2-A21E-4134-B438-C677749E69E9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/data/cwc2023.odds.xlsx
+++ b/data/cwc2023.odds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\cwc2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF06F80-FEDA-4BFD-9449-4A6AC24836E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C8441D-D443-467B-BB38-B7662B10C6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{F3F4EFBD-B2C4-4E38-A904-43F7349B9BFB}"/>
+    <workbookView xWindow="1875" yWindow="-16200" windowWidth="27030" windowHeight="15585" activeTab="1" xr2:uid="{F3F4EFBD-B2C4-4E38-A904-43F7349B9BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -489,213 +489,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D75A08F-5E9A-44CB-997B-B1D653FDEF2D}">
-  <dimension ref="A2:Z11"/>
+  <dimension ref="A2:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>2.7</v>
+      </c>
+      <c r="E2">
         <v>2.75</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
       <c r="G2">
+        <v>2.7</v>
+      </c>
+      <c r="I2">
+        <v>2.87</v>
+      </c>
+      <c r="J2">
         <v>2.75</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>2.9</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
         <v>2.88</v>
       </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
       <c r="M2">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="P2">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="Q2">
-        <v>2.9</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>2.88</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="V2">
         <v>2.88</v>
       </c>
       <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2">
-        <v>3.02</v>
-      </c>
-      <c r="Z2">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+        <v>2.87</v>
+      </c>
+      <c r="AB2">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>4.5</v>
+      </c>
+      <c r="C3">
         <v>4.33</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
       </c>
       <c r="D3">
         <v>4.33</v>
       </c>
       <c r="E3">
-        <v>3.75</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="G3">
         <v>4.33</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
       <c r="I3">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J3">
-        <v>4.33</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L3">
         <v>4.33</v>
       </c>
       <c r="M3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
         <v>4.33</v>
       </c>
-      <c r="N3">
-        <v>3.75</v>
-      </c>
-      <c r="O3">
-        <v>3.75</v>
-      </c>
       <c r="P3">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q3">
-        <v>4.33</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="S3">
         <v>4</v>
       </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
-      <c r="U3">
-        <v>3.75</v>
-      </c>
       <c r="V3">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W3">
-        <v>4</v>
-      </c>
-      <c r="X3">
-        <v>4.33</v>
-      </c>
-      <c r="Y3">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="Z3">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+      <c r="AB3">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
       <c r="C4">
         <v>5.5</v>
       </c>
       <c r="D4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>5.5</v>
-      </c>
-      <c r="F4">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>4.5</v>
-      </c>
-      <c r="H4">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>5.25</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L4">
         <v>5.5</v>
       </c>
       <c r="M4">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="N4">
         <v>5.5</v>
@@ -707,161 +644,110 @@
         <v>5.5</v>
       </c>
       <c r="Q4">
-        <v>5.25</v>
-      </c>
-      <c r="R4">
+        <v>5.2</v>
+      </c>
+      <c r="S4">
         <v>5.5</v>
-      </c>
-      <c r="S4">
-        <v>5</v>
-      </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-      <c r="U4">
-        <v>5</v>
       </c>
       <c r="V4">
         <v>5</v>
       </c>
       <c r="W4">
-        <v>5.5</v>
-      </c>
-      <c r="X4">
-        <v>5.5</v>
-      </c>
-      <c r="Y4">
-        <v>5.52</v>
-      </c>
-      <c r="Z4">
-        <v>5.52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AB4">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>8.5</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>8.5</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>8.5</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>9.5</v>
+      </c>
+      <c r="W5">
+        <v>9</v>
+      </c>
+      <c r="AB5">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>7.5</v>
-      </c>
-      <c r="I5">
-        <v>6.5</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>7.5</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <v>9</v>
-      </c>
-      <c r="N5">
-        <v>7.5</v>
-      </c>
-      <c r="O5">
-        <v>7</v>
-      </c>
-      <c r="P5">
-        <v>7.5</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
-      </c>
-      <c r="R5">
-        <v>7.5</v>
-      </c>
-      <c r="S5">
-        <v>7</v>
-      </c>
-      <c r="T5">
-        <v>7.5</v>
-      </c>
-      <c r="U5">
-        <v>6.5</v>
-      </c>
-      <c r="V5">
-        <v>7</v>
-      </c>
-      <c r="W5">
-        <v>7.5</v>
-      </c>
-      <c r="X5">
-        <v>7.5</v>
-      </c>
-      <c r="Y5">
-        <v>9.26</v>
-      </c>
-      <c r="Z5">
-        <v>9.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>8.5</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>8.5</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
-      </c>
-      <c r="K6">
-        <v>9.5</v>
-      </c>
       <c r="L6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M6">
         <v>9</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P6">
         <v>9</v>
@@ -869,138 +755,90 @@
       <c r="Q6">
         <v>9</v>
       </c>
-      <c r="R6">
-        <v>10</v>
-      </c>
       <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6">
-        <v>10</v>
-      </c>
-      <c r="U6">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W6">
-        <v>10</v>
-      </c>
-      <c r="X6">
-        <v>10</v>
-      </c>
-      <c r="Y6">
-        <v>10.1</v>
-      </c>
-      <c r="Z6">
+        <v>7</v>
+      </c>
+      <c r="AB6">
         <v>10.6</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="G7">
-        <v>9.5</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>11</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>11</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q7">
-        <v>11</v>
-      </c>
-      <c r="R7">
         <v>10</v>
       </c>
       <c r="S7">
         <v>10</v>
       </c>
-      <c r="T7">
-        <v>11</v>
-      </c>
-      <c r="U7">
-        <v>11</v>
-      </c>
       <c r="V7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W7">
-        <v>11</v>
-      </c>
-      <c r="X7">
-        <v>11</v>
-      </c>
-      <c r="Y7">
-        <v>11.6</v>
-      </c>
-      <c r="Z7">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="AB7">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>34</v>
       </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
       <c r="D8">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>41</v>
-      </c>
-      <c r="H8">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I8">
         <v>26</v>
@@ -1008,11 +846,8 @@
       <c r="J8">
         <v>34</v>
       </c>
-      <c r="K8">
-        <v>34</v>
-      </c>
       <c r="L8">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M8">
         <v>34</v>
@@ -1029,41 +864,23 @@
       <c r="Q8">
         <v>34</v>
       </c>
-      <c r="R8">
-        <v>26</v>
-      </c>
       <c r="S8">
         <v>26</v>
       </c>
-      <c r="T8">
-        <v>34</v>
-      </c>
-      <c r="U8">
-        <v>26</v>
-      </c>
       <c r="V8">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="W8">
         <v>26</v>
       </c>
-      <c r="X8">
-        <v>26</v>
-      </c>
-      <c r="Y8">
-        <v>68</v>
-      </c>
-      <c r="Z8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>101</v>
-      </c>
       <c r="C9">
         <v>67</v>
       </c>
@@ -1073,26 +890,17 @@
       <c r="E9">
         <v>101</v>
       </c>
-      <c r="F9">
-        <v>51</v>
-      </c>
       <c r="G9">
         <v>101</v>
       </c>
-      <c r="H9">
-        <v>67</v>
-      </c>
       <c r="I9">
         <v>51</v>
       </c>
       <c r="J9">
         <v>67</v>
       </c>
-      <c r="K9">
-        <v>81</v>
-      </c>
       <c r="L9">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="M9">
         <v>67</v>
@@ -1109,58 +917,34 @@
       <c r="Q9">
         <v>67</v>
       </c>
-      <c r="R9">
-        <v>51</v>
-      </c>
       <c r="S9">
-        <v>101</v>
-      </c>
-      <c r="T9">
-        <v>101</v>
-      </c>
-      <c r="U9">
         <v>51</v>
       </c>
       <c r="V9">
         <v>101</v>
       </c>
       <c r="W9">
-        <v>67</v>
-      </c>
-      <c r="X9">
         <v>51</v>
       </c>
-      <c r="Y9">
-        <v>164</v>
-      </c>
-      <c r="Z9">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>126</v>
-      </c>
       <c r="C10">
         <v>101</v>
       </c>
       <c r="D10">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E10">
         <v>101</v>
       </c>
-      <c r="F10">
-        <v>101</v>
-      </c>
       <c r="G10">
-        <v>101</v>
-      </c>
-      <c r="H10">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="I10">
         <v>67</v>
@@ -1168,11 +952,8 @@
       <c r="J10">
         <v>101</v>
       </c>
-      <c r="K10">
-        <v>101</v>
-      </c>
       <c r="L10">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="M10">
         <v>101</v>
@@ -1189,40 +970,22 @@
       <c r="Q10">
         <v>101</v>
       </c>
-      <c r="R10">
-        <v>67</v>
-      </c>
       <c r="S10">
-        <v>126</v>
-      </c>
-      <c r="T10">
-        <v>101</v>
-      </c>
-      <c r="U10">
         <v>67</v>
       </c>
       <c r="V10">
         <v>126</v>
       </c>
       <c r="W10">
-        <v>101</v>
-      </c>
-      <c r="X10">
-        <v>126</v>
-      </c>
-      <c r="Y10">
-        <v>182</v>
-      </c>
-      <c r="Z10">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="AB10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
-      </c>
-      <c r="B11">
-        <v>751</v>
       </c>
       <c r="C11">
         <v>501</v>
@@ -1233,24 +996,15 @@
       <c r="E11">
         <v>501</v>
       </c>
-      <c r="F11">
-        <v>501</v>
-      </c>
       <c r="G11">
         <v>501</v>
       </c>
-      <c r="H11">
-        <v>501</v>
-      </c>
       <c r="I11">
         <v>501</v>
       </c>
       <c r="J11">
         <v>751</v>
       </c>
-      <c r="K11">
-        <v>501</v>
-      </c>
       <c r="L11">
         <v>1001</v>
       </c>
@@ -1269,17 +1023,8 @@
       <c r="Q11">
         <v>751</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>751</v>
-      </c>
-      <c r="S11">
-        <v>501</v>
-      </c>
-      <c r="T11">
-        <v>501</v>
-      </c>
-      <c r="U11">
-        <v>501</v>
       </c>
       <c r="V11">
         <v>501</v>
@@ -1287,13 +1032,7 @@
       <c r="W11">
         <v>501</v>
       </c>
-      <c r="X11">
-        <v>751</v>
-      </c>
-      <c r="Y11">
-        <v>960</v>
-      </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>960</v>
       </c>
     </row>
@@ -1307,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A7CFB3-C335-48DE-B268-16C4EF6E1377}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,15 +1077,15 @@
       </c>
       <c r="B2">
         <f>AVERAGE(raw!B2:Z2)</f>
-        <v>2.9483999999999999</v>
+        <v>2.8226666666666662</v>
       </c>
       <c r="C2">
         <f>1/(1+B2)</f>
-        <v>0.25326714618579677</v>
+        <v>0.26159748866410887</v>
       </c>
       <c r="D2" s="2">
         <f>C2/C$12</f>
-        <v>0.26543502104343708</v>
+        <v>0.270398728082058</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="str">
@@ -1362,7 +1101,7 @@
       </c>
       <c r="J2" t="str">
         <f>""""&amp;G2&amp;""": " &amp;ROUND(D2,6)&amp;","</f>
-        <v>"IND": 0.265435,</v>
+        <v>"IND": 0.270399,</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1372,15 +1111,15 @@
       </c>
       <c r="B3">
         <f>AVERAGE(raw!B3:Z3)</f>
-        <v>4.1208</v>
+        <v>4.225625</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C11" si="0">1/(1+B3)</f>
-        <v>0.19528198718950163</v>
+        <v>0.19136466929793086</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D11" si="1">C3/C$12</f>
-        <v>0.20466404411183936</v>
+        <v>0.1978029813751172</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="str">
@@ -1396,7 +1135,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J11" si="4">""""&amp;G3&amp;""": " &amp;ROUND(D3,6)&amp;","</f>
-        <v>"ENG": 0.204664,</v>
+        <v>"ENG": 0.197803,</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1406,15 +1145,15 @@
       </c>
       <c r="B4">
         <f>AVERAGE(raw!B4:Z4)</f>
-        <v>5.2115999999999998</v>
+        <v>5.206666666666667</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.16098911713568162</v>
+        <v>0.16111707841031148</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>0.16872361985445086</v>
+        <v>0.16653773435258004</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="str">
@@ -1430,75 +1169,75 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="4"/>
-        <v>"AUS": 0.168724,</v>
+        <v>"AUS": 0.166538,</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>raw!A5</f>
-        <v>Pakistan</v>
+        <v>South Africa</v>
       </c>
       <c r="B5">
         <f>AVERAGE(raw!B5:Z5)</f>
-        <v>7.7407999999999992</v>
+        <v>9.1333333333333329</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.11440600402709133</v>
+        <v>9.8684210526315791E-2</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>0.11990248456524655</v>
+        <v>0.10200436229095527</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
-        <v>Pakistan</v>
+        <v>South Africa</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>MISMATCH!</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="4"/>
-        <v>"PAK": 0.119902,</v>
+        <v>"ZAF": 0.102004,</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>raw!A6</f>
-        <v>South Africa</v>
+        <v>Pakistan</v>
       </c>
       <c r="B6">
         <f>AVERAGE(raw!B6:Z6)</f>
-        <v>9.6879999999999988</v>
+        <v>8.53125</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>9.3562874251497022E-2</v>
+        <v>0.10491803278688525</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>9.805797502693743E-2</v>
+        <v>0.10844791654277737</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v>South Africa</v>
+        <v>Pakistan</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>MISMATCH!</v>
+        <v/>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="4"/>
-        <v>"ZAF": 0.098058,</v>
+        <v>"PAK": 0.108448,</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1508,15 +1247,15 @@
       </c>
       <c r="B7">
         <f>AVERAGE(raw!B7:Z7)</f>
-        <v>10.728000000000002</v>
+        <v>9.09375</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>8.5266030013642552E-2</v>
+        <v>9.9071207430340563E-2</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>8.9362520215544583E-2</v>
+        <v>0.10240437939797864</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="str">
@@ -1532,7 +1271,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="4"/>
-        <v>"NZL": 0.089363,</v>
+        <v>"NZL": 0.102404,</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1542,15 +1281,15 @@
       </c>
       <c r="B8">
         <f>AVERAGE(raw!B8:Z8)</f>
-        <v>33.799999999999997</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2.8735632183908049E-2</v>
+        <v>2.6548672566371685E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>3.011619646804331E-2</v>
+        <v>2.7441881536681777E-2</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="str">
@@ -1566,7 +1305,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="4"/>
-        <v>"LKA": 0.030116,</v>
+        <v>"LKA": 0.027442,</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1576,15 +1315,15 @@
       </c>
       <c r="B9">
         <f>AVERAGE(raw!B9:Z9)</f>
-        <v>83.72</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.1803588290840416E-2</v>
+        <v>1.2658227848101266E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>1.2370675603020622E-2</v>
+        <v>1.3084103855042365E-2</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="str">
@@ -1600,7 +1339,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="4"/>
-        <v>"BGD": 0.012371,</v>
+        <v>"BGD": 0.013084,</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1610,15 +1349,15 @@
       </c>
       <c r="B10">
         <f>AVERAGE(raw!B10:Z10)</f>
-        <v>107.04</v>
+        <v>100.26666666666667</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>9.2558311736393919E-3</v>
+        <v>9.8749177090190921E-3</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>9.7005149674926593E-3</v>
+        <v>1.0207151460319423E-2</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="str">
@@ -1634,7 +1373,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="4"/>
-        <v>"AFG": 0.009701,</v>
+        <v>"AFG": 0.010207,</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1644,15 +1383,15 @@
       </c>
       <c r="B11">
         <f>AVERAGE(raw!B11:Z11)</f>
-        <v>627.72</v>
+        <v>617.66666666666663</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1.5905331467107773E-3</v>
+        <v>1.6163793103448278E-3</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>1.6669481439876368E-3</v>
+        <v>1.6707611064897849E-3</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="str">
@@ -1668,13 +1407,13 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="4"/>
-        <v>"NLD": 0.001667,</v>
+        <v>"NLD": 0.001671,</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>SUM(C2:C11)</f>
-        <v>0.95415874359830943</v>
+        <v>0.96745088454972983</v>
       </c>
     </row>
   </sheetData>

--- a/data/cwc2023.odds.xlsx
+++ b/data/cwc2023.odds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\cwc2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C8441D-D443-467B-BB38-B7662B10C6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D651D9CA-21C4-44F8-B0CB-6217B2731291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="-16200" windowWidth="27030" windowHeight="15585" activeTab="1" xr2:uid="{F3F4EFBD-B2C4-4E38-A904-43F7349B9BFB}"/>
+    <workbookView xWindow="2955" yWindow="-14490" windowWidth="25080" windowHeight="12660" activeTab="1" xr2:uid="{F3F4EFBD-B2C4-4E38-A904-43F7349B9BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -489,23 +489,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D75A08F-5E9A-44CB-997B-B1D653FDEF2D}">
-  <dimension ref="A2:AB11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="B2" sqref="B2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB1">
+        <v>2.92</v>
+      </c>
+    </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>2.75</v>
+      </c>
+      <c r="C2">
         <v>2.88</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
       </c>
       <c r="D2">
         <v>2.7</v>
@@ -520,16 +525,16 @@
         <v>2.87</v>
       </c>
       <c r="J2">
+        <v>2.8</v>
+      </c>
+      <c r="L2">
         <v>2.75</v>
       </c>
-      <c r="L2">
-        <v>2.88</v>
-      </c>
       <c r="M2">
+        <v>2.8</v>
+      </c>
+      <c r="N2">
         <v>2.75</v>
-      </c>
-      <c r="N2">
-        <v>2.88</v>
       </c>
       <c r="O2">
         <v>2.88</v>
@@ -540,202 +545,232 @@
       <c r="Q2">
         <v>2.8</v>
       </c>
+      <c r="S2">
+        <v>2.75</v>
+      </c>
+      <c r="T2">
+        <v>2.63</v>
+      </c>
       <c r="V2">
         <v>2.88</v>
       </c>
       <c r="W2">
         <v>2.87</v>
       </c>
-      <c r="AB2">
-        <v>2.92</v>
+      <c r="X2">
+        <v>2.63</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4.5</v>
       </c>
       <c r="C3">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="E3">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="G3">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I3">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="P3">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>3.5</v>
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
       </c>
       <c r="AB3">
-        <v>4.74</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>5.5</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="N4">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4">
         <v>5</v>
       </c>
       <c r="P4">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="S4">
         <v>5.5</v>
       </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
       <c r="V4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="W4">
         <v>5</v>
       </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
       <c r="AB4">
-        <v>5.42</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P5">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>6.5</v>
       </c>
       <c r="V5">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="W5">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <v>6.5</v>
       </c>
       <c r="AB5">
-        <v>9.4499999999999993</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -747,60 +782,66 @@
         <v>9</v>
       </c>
       <c r="O6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P6">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Q6">
         <v>9</v>
       </c>
       <c r="S6">
-        <v>7.5</v>
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>8.5</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="W6">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="X6">
+        <v>8.5</v>
       </c>
       <c r="AB6">
-        <v>10.6</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
       <c r="D7">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>8.5</v>
       </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
       <c r="I7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>9</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7">
         <v>8</v>
@@ -809,63 +850,75 @@
         <v>9</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>9.5</v>
       </c>
       <c r="V7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W7">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>9.5</v>
       </c>
       <c r="AB7">
-        <v>10.6</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
       <c r="C8">
         <v>34</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>34</v>
       </c>
       <c r="G8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I8">
         <v>26</v>
       </c>
       <c r="J8">
+        <v>41</v>
+      </c>
+      <c r="L8">
+        <v>41</v>
+      </c>
+      <c r="M8">
+        <v>41</v>
+      </c>
+      <c r="N8">
+        <v>51</v>
+      </c>
+      <c r="O8">
         <v>34</v>
-      </c>
-      <c r="L8">
-        <v>51</v>
-      </c>
-      <c r="M8">
-        <v>34</v>
-      </c>
-      <c r="N8">
-        <v>41</v>
-      </c>
-      <c r="O8">
-        <v>23</v>
       </c>
       <c r="P8">
         <v>34</v>
       </c>
       <c r="Q8">
+        <v>41</v>
+      </c>
+      <c r="S8">
         <v>34</v>
       </c>
-      <c r="S8">
-        <v>26</v>
+      <c r="T8">
+        <v>51</v>
       </c>
       <c r="V8">
         <v>41</v>
@@ -873,14 +926,20 @@
       <c r="W8">
         <v>26</v>
       </c>
+      <c r="X8">
+        <v>51</v>
+      </c>
       <c r="AB8">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>101</v>
+      </c>
       <c r="C9">
         <v>67</v>
       </c>
@@ -920,20 +979,29 @@
       <c r="S9">
         <v>51</v>
       </c>
+      <c r="T9">
+        <v>101</v>
+      </c>
       <c r="V9">
         <v>101</v>
       </c>
       <c r="W9">
         <v>51</v>
       </c>
+      <c r="X9">
+        <v>101</v>
+      </c>
       <c r="AB9">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>126</v>
+      </c>
       <c r="C10">
         <v>101</v>
       </c>
@@ -973,20 +1041,29 @@
       <c r="S10">
         <v>67</v>
       </c>
+      <c r="T10">
+        <v>126</v>
+      </c>
       <c r="V10">
         <v>126</v>
       </c>
       <c r="W10">
         <v>67</v>
       </c>
+      <c r="X10">
+        <v>126</v>
+      </c>
       <c r="AB10">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>751</v>
+      </c>
       <c r="C11">
         <v>501</v>
       </c>
@@ -1026,10 +1103,16 @@
       <c r="S11">
         <v>751</v>
       </c>
+      <c r="T11">
+        <v>501</v>
+      </c>
       <c r="V11">
         <v>501</v>
       </c>
       <c r="W11">
+        <v>501</v>
+      </c>
+      <c r="X11">
         <v>501</v>
       </c>
       <c r="AB11">
@@ -1047,7 +1130,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,15 +1160,15 @@
       </c>
       <c r="B2">
         <f>AVERAGE(raw!B2:Z2)</f>
-        <v>2.8226666666666662</v>
+        <v>2.7744444444444447</v>
       </c>
       <c r="C2">
         <f>1/(1+B2)</f>
-        <v>0.26159748866410887</v>
+        <v>0.26493965263467761</v>
       </c>
       <c r="D2" s="2">
         <f>C2/C$12</f>
-        <v>0.270398728082058</v>
+        <v>0.27405096136838053</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="str">
@@ -1101,33 +1184,33 @@
       </c>
       <c r="J2" t="str">
         <f>""""&amp;G2&amp;""": " &amp;ROUND(D2,6)&amp;","</f>
-        <v>"IND": 0.270399,</v>
+        <v>"IND": 0.274051,</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>raw!A3</f>
-        <v>England</v>
+        <v>Australia</v>
       </c>
       <c r="B3">
         <f>AVERAGE(raw!B3:Z3)</f>
-        <v>4.225625</v>
+        <v>4.8888888888888893</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C11" si="0">1/(1+B3)</f>
-        <v>0.19136466929793086</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D11" si="1">C3/C$12</f>
-        <v>0.1978029813751172</v>
+        <v>0.17565115391856392</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F11" si="2">A3</f>
-        <v>England</v>
+        <v>Australia</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" ref="H3:H11" si="3">IF(LEFT(F3,3)=G3,"","MISMATCH!")</f>
@@ -1135,33 +1218,33 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J11" si="4">""""&amp;G3&amp;""": " &amp;ROUND(D3,6)&amp;","</f>
-        <v>"ENG": 0.197803,</v>
+        <v>"AUS": 0.175651,</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>raw!A4</f>
-        <v>Australia</v>
+        <v>England</v>
       </c>
       <c r="B4">
         <f>AVERAGE(raw!B4:Z4)</f>
-        <v>5.206666666666667</v>
+        <v>5.4722222222222223</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.16111707841031148</v>
+        <v>0.15450643776824033</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>0.16653773435258004</v>
+        <v>0.15981993403749162</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
-        <v>Australia</v>
+        <v>England</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1169,33 +1252,33 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="4"/>
-        <v>"AUS": 0.166538,</v>
+        <v>"ENG": 0.15982,</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>raw!A5</f>
-        <v>South Africa</v>
+        <v>New Zealand</v>
       </c>
       <c r="B5">
         <f>AVERAGE(raw!B5:Z5)</f>
-        <v>9.1333333333333329</v>
+        <v>6.9444444444444446</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>9.8684210526315791E-2</v>
+        <v>0.12587412587412586</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>0.10200436229095527</v>
+        <v>0.1302029532543201</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
-        <v>South Africa</v>
+        <v>New Zealand</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1203,75 +1286,75 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="4"/>
-        <v>"ZAF": 0.102004,</v>
+        <v>"NZL": 0.130203,</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>raw!A6</f>
-        <v>Pakistan</v>
+        <v>South Africa</v>
       </c>
       <c r="B6">
         <f>AVERAGE(raw!B6:Z6)</f>
-        <v>8.53125</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.10491803278688525</v>
+        <v>0.10112359550561797</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>0.10844791654277737</v>
+        <v>0.10460124896274031</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v>Pakistan</v>
+        <v>South Africa</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>MISMATCH!</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="4"/>
-        <v>"PAK": 0.108448,</v>
+        <v>"ZAF": 0.104601,</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>raw!A7</f>
-        <v>New Zealand</v>
+        <v>Pakistan</v>
       </c>
       <c r="B7">
         <f>AVERAGE(raw!B7:Z7)</f>
-        <v>9.09375</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>9.9071207430340563E-2</v>
+        <v>0.10344827586206898</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>0.10240437939797864</v>
+        <v>0.10700587537567689</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
-        <v>New Zealand</v>
+        <v>Pakistan</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>MISMATCH!</v>
+        <v/>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="4"/>
-        <v>"NZL": 0.102404,</v>
+        <v>"PAK": 0.107006,</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1281,15 +1364,15 @@
       </c>
       <c r="B8">
         <f>AVERAGE(raw!B8:Z8)</f>
-        <v>36.666666666666664</v>
+        <v>40.888888888888886</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2.6548672566371685E-2</v>
+        <v>2.387267904509284E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>2.7441881536681777E-2</v>
+        <v>2.4693663548233127E-2</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="str">
@@ -1305,7 +1388,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="4"/>
-        <v>"LKA": 0.027442,</v>
+        <v>"LKA": 0.024694,</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1315,15 +1398,15 @@
       </c>
       <c r="B9">
         <f>AVERAGE(raw!B9:Z9)</f>
-        <v>78</v>
+        <v>81.833333333333329</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.2658227848101266E-2</v>
+        <v>1.2072434607645876E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>1.3084103855042365E-2</v>
+        <v>1.2487607186698712E-2</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="str">
@@ -1339,7 +1422,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="4"/>
-        <v>"BGD": 0.013084,</v>
+        <v>"BGD": 0.012488,</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1349,15 +1432,15 @@
       </c>
       <c r="B10">
         <f>AVERAGE(raw!B10:Z10)</f>
-        <v>100.26666666666667</v>
+        <v>104.55555555555556</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>9.8749177090190921E-3</v>
+        <v>9.4736842105263164E-3</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>1.0207151460319423E-2</v>
+        <v>9.7994854291409365E-3</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="str">
@@ -1373,7 +1456,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="4"/>
-        <v>"AFG": 0.010207,</v>
+        <v>"AFG": 0.009799,</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1383,15 +1466,15 @@
       </c>
       <c r="B11">
         <f>AVERAGE(raw!B11:Z11)</f>
-        <v>617.66666666666663</v>
+        <v>612.11111111111109</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1.6163793103448278E-3</v>
+        <v>1.6310257339615805E-3</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>1.6707611064897849E-3</v>
+        <v>1.6871169187538764E-3</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="str">
@@ -1407,13 +1490,13 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="4"/>
-        <v>"NLD": 0.001671,</v>
+        <v>"NLD": 0.001687,</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>SUM(C2:C11)</f>
-        <v>0.96745088454972983</v>
+        <v>0.96675323199667429</v>
       </c>
     </row>
   </sheetData>
